--- a/file_comp/files/output.xlsx
+++ b/file_comp/files/output.xlsx
@@ -434,439 +434,472 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>user_id</t>
+          <t>transactio_amonut</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>transactio_amonut</t>
+          <t>transaction_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>transaction_type</t>
+          <t>balace</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>balace</t>
+          <t>created_at</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>Duplicate</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16 --&gt; 16</t>
+          <t>2 --&gt; 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 --&gt; 2</t>
+          <t>deposits --&gt; deposits</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20 --&gt; 20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2020-12-01 14:30:40 --&gt; 2020-12-01 14:30:40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>50 --&gt; 50</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>deposits --&gt; deposits</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52 --&gt; 52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2021-02-03 14:38:19 --&gt; 2021-02-03 14:38:19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40 --&gt; 40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2020-12-02 10:00:03 --&gt; 2020-12-02 10:00:03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28 --&gt; 28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2020-12-10 10:30:38 --&gt; 2020-12-10 10:30:38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>deposits</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>20 --&gt; 20</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2020-12-01 14:30:40 --&gt; 2020-12-01 14:30:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>50 --&gt; 50</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>deposits --&gt; deposits</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>52 --&gt; 52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2021-02-03 14:38:19 --&gt; 2021-02-03 14:38:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2020-12-17 10:00:02 --&gt; 2020-12-17 10:00:02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>deductions --&gt; deductions</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>40 --&gt; 40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:00:03 --&gt; 2020-12-02 10:00:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-8 --&gt; -8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2020-12-24 10:00:03 --&gt; 2020-12-24 10:00:03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>deductions --&gt; deductions</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28 --&gt; 28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020-12-10 10:30:38 --&gt; 2020-12-10 10:30:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-20 --&gt; -20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2020-12-31 10:00:02 --&gt; 2020-12-31 10:00:02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>300</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2021-01-07 10:00:03 --&gt; 2021-01-07 10:00:03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20 --&gt; 20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2021-01-14 10:00:03 --&gt; 2021-01-14 10:00:03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-56 --&gt; -56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2021-01-21 10:00:03 --&gt; 2021-01-21 10:00:03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>deposits</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20 --&gt; 20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2020-12-17 10:00:02 --&gt; 2020-12-17 10:00:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2021-01-28 10:00:02 --&gt; 2021-01-28 10:00:02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>deductions --&gt; deductions</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-8 --&gt; -8</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2020-12-24 10:00:03 --&gt; 2020-12-24 10:00:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-80 --&gt; -80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2021-02-04 10:00:02 --&gt; 2021-02-04 10:00:02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-92 --&gt; -92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2021-02-11 10:00:06 --&gt; 2021-02-11 10:00:06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No --&gt; No</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>30</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>deductions --&gt; deductions</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-20 --&gt; -20</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2020-12-31 10:00:02 --&gt; 2020-12-31 10:00:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>300</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2021-01-07 10:00:03 --&gt; 2021-01-07 10:00:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20 --&gt; 20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2021-01-14 10:00:03 --&gt; 2021-01-14 10:00:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-56 --&gt; -56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2021-01-21 10:00:03 --&gt; 2021-01-21 10:00:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>deposits</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2021-01-28 10:00:02 --&gt; 2021-01-28 10:00:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-80 --&gt; -80</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2021-02-04 10:00:02 --&gt; 2021-02-04 10:00:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-92 --&gt; -92</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2021-02-11 10:00:06 --&gt; 2021-02-11 10:00:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>30</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>deductions --&gt; deductions</t>
+          <t>-104 --&gt; -104</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-104 --&gt; -104</t>
+          <t>2021-02-18 10:00:06 --&gt; 2021-02-18 10:00:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-18 10:00:06 --&gt; 2021-02-18 10:00:06</t>
+          <t>No --&gt; No</t>
         </is>
       </c>
     </row>

--- a/file_comp/files/output.xlsx
+++ b/file_comp/files/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,472 +434,412 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>transactio_amonut</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>transaction_type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>balace</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Duplicate</t>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2 --&gt; 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>deposits --&gt; deposits</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>20 --&gt; 20</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2020-12-01 14:30:40 --&gt; 2020-12-01 14:30:40</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2 --&gt; 2</t>
+          <t>16 --&gt; 16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>50 --&gt; 50</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>deposits --&gt; deposits</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52 --&gt; 52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-02-03 14:38:19 --&gt; 2021-02-03 14:38:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40 --&gt; 40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2020-12-02 10:00:03 --&gt; 2020-12-02 10:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28 --&gt; 28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2020-12-10 10:30:38 --&gt; 2020-12-10 10:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>deposits</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>20 --&gt; 20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2020-12-01 14:30:40 --&gt; 2020-12-01 14:30:40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>50 --&gt; 50</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>deposits --&gt; deposits</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>52 --&gt; 52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2021-02-03 14:38:19 --&gt; 2021-02-03 14:38:19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40 --&gt; 40</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:00:03 --&gt; 2020-12-02 10:00:03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28 --&gt; 28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2020-12-10 10:30:38 --&gt; 2020-12-10 10:30:38</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No --&gt; No</t>
+          <t>2020-12-17 10:00:02 --&gt; 2020-12-17 10:00:02</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-8 --&gt; -8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2020-12-24 10:00:03 --&gt; 2020-12-24 10:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-20 --&gt; -20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2020-12-31 10:00:02 --&gt; 2020-12-31 10:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>300</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-01-07 10:00:03 --&gt; 2021-01-07 10:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20 --&gt; 20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-01-14 10:00:03 --&gt; 2021-01-14 10:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-56 --&gt; -56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-01-21 10:00:03 --&gt; 2021-01-21 10:00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>deposits</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20 --&gt; 20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2020-12-17 10:00:02 --&gt; 2020-12-17 10:00:02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-8 --&gt; -8</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2020-12-24 10:00:03 --&gt; 2020-12-24 10:00:03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-01-28 10:00:02 --&gt; 2021-01-28 10:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-80 --&gt; -80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-02-04 10:00:02 --&gt; 2021-02-04 10:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16 --&gt; 16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12 --&gt; 12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>deductions --&gt; deductions</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-92 --&gt; -92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-02-11 10:00:06 --&gt; 2021-02-11 10:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
         <v>30</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-20 --&gt; -20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2020-12-31 10:00:02 --&gt; 2020-12-31 10:00:02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>300</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2021-01-07 10:00:03 --&gt; 2021-01-07 10:00:03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20 --&gt; 20</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2021-01-14 10:00:03 --&gt; 2021-01-14 10:00:03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-56 --&gt; -56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2021-01-21 10:00:03 --&gt; 2021-01-21 10:00:03</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>deposits</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2021-01-28 10:00:02 --&gt; 2021-01-28 10:00:02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-80 --&gt; -80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2021-02-04 10:00:02 --&gt; 2021-02-04 10:00:02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>16 --&gt; 16</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>deductions --&gt; deductions</t>
+          <t>12 --&gt; 12</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-92 --&gt; -92</t>
+          <t>deductions --&gt; deductions</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2021-02-11 10:00:06 --&gt; 2021-02-11 10:00:06</t>
+          <t>-104 --&gt; -104</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No --&gt; No</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>30</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>12 --&gt; 12</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>deductions --&gt; deductions</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-104 --&gt; -104</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>2021-02-18 10:00:06 --&gt; 2021-02-18 10:00:06</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>No --&gt; No</t>
         </is>
       </c>
     </row>

--- a/file_comp/files/output.xlsx
+++ b/file_comp/files/output.xlsx
@@ -16,97 +16,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
-    <t>16 #0000FF 16</t>
-  </si>
-  <si>
-    <t>2 #0000FF 2</t>
-  </si>
-  <si>
-    <t>50 #0000FF 50</t>
-  </si>
-  <si>
-    <t>12 #0000FF 12</t>
-  </si>
-  <si>
-    <t>deposits #0000FF deposits</t>
-  </si>
-  <si>
-    <t>deductions #0000FF deductions</t>
+    <t>16  16</t>
+  </si>
+  <si>
+    <t>2  2</t>
+  </si>
+  <si>
+    <t>50  50</t>
+  </si>
+  <si>
+    <t>12  12</t>
+  </si>
+  <si>
+    <t>deposits  deposits</t>
+  </si>
+  <si>
+    <t>deductions  deductions</t>
   </si>
   <si>
     <t>deposits</t>
   </si>
   <si>
-    <t>20 #0000FF 20</t>
-  </si>
-  <si>
-    <t>52 #0000FF 52</t>
-  </si>
-  <si>
-    <t>40 #0000FF 40</t>
-  </si>
-  <si>
-    <t>28 #0000FF 28</t>
-  </si>
-  <si>
-    <t>-8 #0000FF -8</t>
-  </si>
-  <si>
-    <t>-20 #0000FF -20</t>
-  </si>
-  <si>
-    <t>-56 #0000FF -56</t>
-  </si>
-  <si>
-    <t>-80 #0000FF -80</t>
-  </si>
-  <si>
-    <t>-92 #0000FF -92</t>
-  </si>
-  <si>
-    <t>-104 #0000FF -104</t>
-  </si>
-  <si>
-    <t>2020-12-01 14:30:40 #0000FF 2020-12-01 14:30:40</t>
-  </si>
-  <si>
-    <t>2021-02-03 14:38:19 #0000FF 2021-02-03 14:38:19</t>
-  </si>
-  <si>
-    <t>2020-12-02 10:00:03 #0000FF 2020-12-02 10:00:03</t>
-  </si>
-  <si>
-    <t>2020-12-10 10:30:38 #0000FF 2020-12-10 10:30:38</t>
-  </si>
-  <si>
-    <t>2020-12-17 10:00:02 #0000FF 2020-12-17 10:00:02</t>
-  </si>
-  <si>
-    <t>2020-12-24 10:00:03 #0000FF 2020-12-24 10:00:03</t>
-  </si>
-  <si>
-    <t>2020-12-31 10:00:02 #0000FF 2020-12-31 10:00:02</t>
-  </si>
-  <si>
-    <t>2021-01-07 10:00:03 #0000FF 2021-01-07 10:00:03</t>
-  </si>
-  <si>
-    <t>2021-01-14 10:00:03 #0000FF 2021-01-14 10:00:03</t>
-  </si>
-  <si>
-    <t>2021-01-21 10:00:03 #0000FF 2021-01-21 10:00:03</t>
-  </si>
-  <si>
-    <t>2021-01-28 10:00:02 #0000FF 2021-01-28 10:00:02</t>
-  </si>
-  <si>
-    <t>2021-02-04 10:00:02 #0000FF 2021-02-04 10:00:02</t>
-  </si>
-  <si>
-    <t>2021-02-11 10:00:06 #0000FF 2021-02-11 10:00:06</t>
-  </si>
-  <si>
-    <t>2021-02-18 10:00:06 #0000FF 2021-02-18 10:00:06</t>
+    <t>20  20</t>
+  </si>
+  <si>
+    <t>52  52</t>
+  </si>
+  <si>
+    <t>40  40</t>
+  </si>
+  <si>
+    <t>28  28</t>
+  </si>
+  <si>
+    <t>-8  -8</t>
+  </si>
+  <si>
+    <t>-20  -20</t>
+  </si>
+  <si>
+    <t>-56  -56</t>
+  </si>
+  <si>
+    <t>-80  -80</t>
+  </si>
+  <si>
+    <t>-92  -92</t>
+  </si>
+  <si>
+    <t>-104  -104</t>
+  </si>
+  <si>
+    <t>2020-12-01 14:30:40  2020-12-01 14:30:40</t>
+  </si>
+  <si>
+    <t>2021-02-03 14:38:19  2021-02-03 14:38:19</t>
+  </si>
+  <si>
+    <t>2020-12-02 10:00:03  2020-12-02 10:00:03</t>
+  </si>
+  <si>
+    <t>2020-12-10 10:30:38  2020-12-10 10:30:38</t>
+  </si>
+  <si>
+    <t>2020-12-17 10:00:02  2020-12-17 10:00:02</t>
+  </si>
+  <si>
+    <t>2020-12-24 10:00:03  2020-12-24 10:00:03</t>
+  </si>
+  <si>
+    <t>2020-12-31 10:00:02  2020-12-31 10:00:02</t>
+  </si>
+  <si>
+    <t>2021-01-07 10:00:03  2021-01-07 10:00:03</t>
+  </si>
+  <si>
+    <t>2021-01-14 10:00:03  2021-01-14 10:00:03</t>
+  </si>
+  <si>
+    <t>2021-01-21 10:00:03  2021-01-21 10:00:03</t>
+  </si>
+  <si>
+    <t>2021-01-28 10:00:02  2021-01-28 10:00:02</t>
+  </si>
+  <si>
+    <t>2021-02-04 10:00:02  2021-02-04 10:00:02</t>
+  </si>
+  <si>
+    <t>2021-02-11 10:00:06  2021-02-11 10:00:06</t>
+  </si>
+  <si>
+    <t>2021-02-18 10:00:06  2021-02-18 10:00:06</t>
   </si>
 </sst>
 </file>

--- a/file_comp/files/output.xlsx
+++ b/file_comp/files/output.xlsx
@@ -14,99 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>16  16</t>
-  </si>
-  <si>
-    <t>2  2</t>
-  </si>
-  <si>
-    <t>50  50</t>
-  </si>
-  <si>
-    <t>12  12</t>
-  </si>
-  <si>
-    <t>deposits  deposits</t>
-  </si>
-  <si>
-    <t>deductions  deductions</t>
-  </si>
-  <si>
-    <t>deposits</t>
-  </si>
-  <si>
-    <t>20  20</t>
-  </si>
-  <si>
-    <t>52  52</t>
-  </si>
-  <si>
-    <t>40  40</t>
-  </si>
-  <si>
-    <t>28  28</t>
-  </si>
-  <si>
-    <t>-8  -8</t>
-  </si>
-  <si>
-    <t>-20  -20</t>
-  </si>
-  <si>
-    <t>-56  -56</t>
-  </si>
-  <si>
-    <t>-80  -80</t>
-  </si>
-  <si>
-    <t>-92  -92</t>
-  </si>
-  <si>
-    <t>-104  -104</t>
-  </si>
-  <si>
-    <t>2020-12-01 14:30:40  2020-12-01 14:30:40</t>
-  </si>
-  <si>
-    <t>2021-02-03 14:38:19  2021-02-03 14:38:19</t>
-  </si>
-  <si>
-    <t>2020-12-02 10:00:03  2020-12-02 10:00:03</t>
-  </si>
-  <si>
-    <t>2020-12-10 10:30:38  2020-12-10 10:30:38</t>
-  </si>
-  <si>
-    <t>2020-12-17 10:00:02  2020-12-17 10:00:02</t>
-  </si>
-  <si>
-    <t>2020-12-24 10:00:03  2020-12-24 10:00:03</t>
-  </si>
-  <si>
-    <t>2020-12-31 10:00:02  2020-12-31 10:00:02</t>
-  </si>
-  <si>
-    <t>2021-01-07 10:00:03  2021-01-07 10:00:03</t>
-  </si>
-  <si>
-    <t>2021-01-14 10:00:03  2021-01-14 10:00:03</t>
-  </si>
-  <si>
-    <t>2021-01-21 10:00:03  2021-01-21 10:00:03</t>
-  </si>
-  <si>
-    <t>2021-01-28 10:00:02  2021-01-28 10:00:02</t>
-  </si>
-  <si>
-    <t>2021-02-04 10:00:02  2021-02-04 10:00:02</t>
-  </si>
-  <si>
-    <t>2021-02-11 10:00:06  2021-02-11 10:00:06</t>
-  </si>
-  <si>
-    <t>2021-02-18 10:00:06  2021-02-18 10:00:06</t>
+    <t>Numbers</t>
   </si>
 </sst>
 </file>
@@ -464,290 +374,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/file_comp/files/output.xlsx
+++ b/file_comp/files/output.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,6 +402,26 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
         <v>50</v>
       </c>
     </row>
